--- a/doc/Trendline_length&headcirc.xlsx
+++ b/doc/Trendline_length&headcirc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. PELTOPS\e-imunisasi\TUGAS\Grafik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8194FBF4-05EF-4352-BC42-3248D2376FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E84ABF-BE18-4628-9CAE-B099C69BE7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="939" xr2:uid="{4A57E372-DA1B-462A-B7C4-F6E2AC13B6C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="939" activeTab="3" xr2:uid="{4A57E372-DA1B-462A-B7C4-F6E2AC13B6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="HeadCir boys" sheetId="5" r:id="rId1"/>
@@ -130,8 +130,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.2034946339334587E-2"/>
-          <c:y val="4.7830227548855249E-2"/>
+          <c:x val="6.8482192099137917E-2"/>
+          <c:y val="5.0927606047657781E-2"/>
           <c:w val="0.90637335215738346"/>
           <c:h val="0.89095260488942929"/>
         </c:manualLayout>
@@ -168,7 +168,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -178,7 +178,7 @@
                   <c:y val="0.59693849618680705"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -564,7 +564,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -579,7 +579,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="6"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -594,7 +594,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -609,7 +609,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -624,7 +624,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -639,7 +639,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -654,7 +654,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -669,37 +669,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -717,7 +687,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -727,7 +697,7 @@
                   <c:y val="0.53211909131338975"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1107,7 +1077,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1117,7 +1087,7 @@
                   <c:y val="0.46741993069830917"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1497,7 +1467,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1507,7 +1477,7 @@
                   <c:y val="0.39992440360972764"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1887,7 +1857,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1902,7 +1872,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1917,7 +1887,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1932,7 +1902,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1950,7 +1920,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1960,7 +1930,7 @@
                   <c:y val="0.33120310974313033"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2340,7 +2310,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2350,7 +2320,7 @@
                   <c:y val="0.2644626219098038"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2730,7 +2700,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2740,7 +2710,7 @@
                   <c:y val="0.19807112367390381"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3367,7 +3337,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3377,7 +3347,7 @@
                   <c:y val="0.24949488839150685"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3774,7 +3744,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3789,7 +3759,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3799,7 +3769,7 @@
                   <c:y val="0.52899490743541311"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4179,7 +4149,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4189,7 +4159,7 @@
                   <c:y val="0.47223555295662245"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4569,7 +4539,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4579,7 +4549,7 @@
                   <c:y val="0.41285015582396262"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4959,7 +4929,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4969,7 +4939,7 @@
                   <c:y val="0.31854742044688206"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5349,7 +5319,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5359,7 +5329,7 @@
                   <c:y val="0.37499736746001339"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5739,7 +5709,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5749,7 +5719,7 @@
                   <c:y val="0.26161129370856551"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6449,17 +6419,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="4"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21177465100931481"/>
-                  <c:y val="0.14861594977492057"/>
+                  <c:x val="0.24070609216074479"/>
+                  <c:y val="0.14817090980262265"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6839,7 +6809,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -6849,7 +6819,7 @@
                   <c:y val="0.27187214886858074"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -7226,7 +7196,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -7236,7 +7206,7 @@
                   <c:y val="0.39936375543879188"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -7616,7 +7586,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -7626,7 +7596,7 @@
                   <c:y val="0.53099351108836057"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -8003,7 +7973,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -8013,7 +7983,7 @@
                   <c:y val="0.64210325047801142"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -8637,17 +8607,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13798960245645356"/>
-                  <c:y val="0.48273866406744032"/>
+                  <c:x val="0.18452763999593252"/>
+                  <c:y val="0.44098981894779077"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -9024,17 +8994,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13812226842504866"/>
-                  <c:y val="0.4041140438910748"/>
+                  <c:x val="0.18775718521383294"/>
+                  <c:y val="0.38136054967651334"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -9411,17 +9381,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15576614856993024"/>
-                  <c:y val="0.32976876355177986"/>
+                  <c:x val="0.1921626955339174"/>
+                  <c:y val="0.31873413912432919"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -9801,17 +9771,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14559717201244043"/>
-                  <c:y val="0.25533170941838873"/>
+                  <c:x val="0.20597275662557882"/>
+                  <c:y val="0.25593219318922716"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -10188,17 +10158,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15810991401511049"/>
-                  <c:y val="0.17328103945680226"/>
+                  <c:x val="0.22172447082789656"/>
+                  <c:y val="0.1939208586187873"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -12970,8 +12940,8 @@
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>231587</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
@@ -13006,13 +12976,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>484187</xdr:colOff>
+      <xdr:colOff>484186</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>344714</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>239058</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>45358</xdr:rowOff>
     </xdr:to>
@@ -13088,15 +13058,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>142873</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>395942</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52294</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13423,8 +13393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E569C-3B02-4D3C-86F3-EBE063475D37}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView topLeftCell="T4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ23" sqref="AJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15647,8 +15617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E20DF2-EBC4-4F9B-9491-7A4361450C8B}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="N4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+    <sheetView topLeftCell="S6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19479,8 +19449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885650C3-126C-450F-9EEE-FB647086C137}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
